--- a/conversation/Future-Continuous.xlsx
+++ b/conversation/Future-Continuous.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\เบ็ดเตล็ด\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Pictures\Jiw\Project\grammar-police-game\testgame\conversation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFD8F38-A40E-4590-B0CA-3CA9239F8FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4494BCB3-9369-4CD9-9B24-97F74508BF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8705A923-91B9-455A-84BA-D47F0054A3D6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{8705A923-91B9-455A-84BA-D47F0054A3D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
   <si>
     <t>ID</t>
   </si>
@@ -113,9 +111,6 @@
     <t>Yeah, I'll probably take a short break to grab some dinner and then come back and review some more.</t>
   </si>
   <si>
-    <t>studied</t>
-  </si>
-  <si>
     <t>studying</t>
   </si>
   <si>
@@ -126,7 +121,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -136,7 +131,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -145,9 +140,6 @@
     </r>
   </si>
   <si>
-    <t>go</t>
-  </si>
-  <si>
     <t>going</t>
   </si>
   <si>
@@ -158,7 +150,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -168,7 +160,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -177,9 +169,6 @@
     </r>
   </si>
   <si>
-    <t>been</t>
-  </si>
-  <si>
     <t>be</t>
   </si>
   <si>
@@ -190,7 +179,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -200,7 +189,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -209,9 +198,6 @@
     </r>
   </si>
   <si>
-    <t>being</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Yes, we'll </t>
     </r>
@@ -219,7 +205,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -229,7 +215,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -238,12 +224,6 @@
     </r>
   </si>
   <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>taken</t>
-  </si>
-  <si>
     <t>taking</t>
   </si>
   <si>
@@ -254,7 +234,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -264,7 +244,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -280,7 +260,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -290,7 +270,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -299,9 +279,6 @@
     </r>
   </si>
   <si>
-    <t>visited</t>
-  </si>
-  <si>
     <t>visiting</t>
   </si>
   <si>
@@ -312,7 +289,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -322,7 +299,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -341,7 +318,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -351,7 +328,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -360,9 +337,6 @@
     </r>
   </si>
   <si>
-    <t>present</t>
-  </si>
-  <si>
     <t>presenting</t>
   </si>
   <si>
@@ -373,7 +347,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -383,7 +357,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -392,9 +366,6 @@
     </r>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
     <t>doing</t>
   </si>
   <si>
@@ -405,7 +376,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -415,7 +386,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -424,9 +395,6 @@
     </r>
   </si>
   <si>
-    <t>practice</t>
-  </si>
-  <si>
     <t>practicing</t>
   </si>
   <si>
@@ -437,7 +405,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -447,7 +415,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -456,9 +424,6 @@
     </r>
   </si>
   <si>
-    <t>do</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">What are you going to be </t>
     </r>
@@ -466,7 +431,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -476,7 +441,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -485,9 +450,6 @@
     </r>
   </si>
   <si>
-    <t>ate</t>
-  </si>
-  <si>
     <t>eating</t>
   </si>
   <si>
@@ -501,7 +463,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -511,7 +473,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -520,9 +482,6 @@
     </r>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>using</t>
   </si>
   <si>
@@ -533,7 +492,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -543,7 +502,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -552,9 +511,6 @@
     </r>
   </si>
   <si>
-    <t>said</t>
-  </si>
-  <si>
     <t>saying</t>
   </si>
   <si>
@@ -565,7 +521,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -575,7 +531,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -584,9 +540,6 @@
     </r>
   </si>
   <si>
-    <t>curse</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">I'll be </t>
     </r>
@@ -594,7 +547,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -604,7 +557,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -620,7 +573,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -630,7 +583,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -639,9 +592,6 @@
     </r>
   </si>
   <si>
-    <t>wills</t>
-  </si>
-  <si>
     <t>will</t>
   </si>
   <si>
@@ -652,7 +602,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -662,7 +612,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -678,7 +628,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -688,7 +638,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -697,9 +647,6 @@
     </r>
   </si>
   <si>
-    <t>take</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">That sounds like a great way to spend the day. Are you going to be </t>
     </r>
@@ -707,7 +654,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -717,7 +664,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -736,7 +683,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -746,7 +693,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -755,9 +702,6 @@
     </r>
   </si>
   <si>
-    <t>hidden</t>
-  </si>
-  <si>
     <t>hiding</t>
   </si>
   <si>
@@ -768,7 +712,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -778,7 +722,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -787,9 +731,6 @@
     </r>
   </si>
   <si>
-    <t>snack</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Good luck with that. Will you be using the Cheetos as projectiles or just </t>
     </r>
@@ -797,7 +738,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -807,7 +748,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -816,9 +757,6 @@
     </r>
   </si>
   <si>
-    <t>goes</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">What are you </t>
     </r>
@@ -826,7 +764,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -836,7 +774,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -845,9 +783,6 @@
     </r>
   </si>
   <si>
-    <t>sang</t>
-  </si>
-  <si>
     <t>singing</t>
   </si>
   <si>
@@ -858,7 +793,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -868,7 +803,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -884,7 +819,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -894,7 +829,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -903,9 +838,6 @@
     </r>
   </si>
   <si>
-    <t>rock</t>
-  </si>
-  <si>
     <t>rocking</t>
   </si>
   <si>
@@ -916,7 +848,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -926,7 +858,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -942,7 +874,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -952,7 +884,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -964,9 +896,6 @@
     <t>headbanging</t>
   </si>
   <si>
-    <t>haedbang</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">They're going to be </t>
     </r>
@@ -974,7 +903,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -984,7 +913,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -993,9 +922,6 @@
     </r>
   </si>
   <si>
-    <t>does</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">What is the team going to be </t>
     </r>
@@ -1003,7 +929,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1013,7 +939,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1022,9 +948,6 @@
     </r>
   </si>
   <si>
-    <t>praticed</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">They're going to be </t>
     </r>
@@ -1032,7 +955,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1042,7 +965,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1051,9 +974,6 @@
     </r>
   </si>
   <si>
-    <t>gone</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">That's going to be intense. Are they </t>
     </r>
@@ -1061,7 +981,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1071,7 +991,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1080,9 +1000,6 @@
     </r>
   </si>
   <si>
-    <t>play</t>
-  </si>
-  <si>
     <t>playing</t>
   </si>
   <si>
@@ -1096,7 +1013,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1106,7 +1023,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1115,9 +1032,6 @@
     </r>
   </si>
   <si>
-    <t>excited</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">That's going to be </t>
     </r>
@@ -1125,7 +1039,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1135,7 +1049,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1144,9 +1058,6 @@
     </r>
   </si>
   <si>
-    <t>conducted</t>
-  </si>
-  <si>
     <t>conducting</t>
   </si>
   <si>
@@ -1157,7 +1068,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1167,7 +1078,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1183,7 +1094,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1193,7 +1104,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1209,7 +1120,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1219,7 +1130,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1235,7 +1146,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1245,7 +1156,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1254,9 +1165,6 @@
     </r>
   </si>
   <si>
-    <t>camp</t>
-  </si>
-  <si>
     <t>camping</t>
   </si>
   <si>
@@ -1267,7 +1175,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1277,7 +1185,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1294,7 +1202,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1302,7 +1210,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1337,7 +1245,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1671,11 +1579,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495755F9-CF71-4E00-88C0-25B6F17E49EC}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="8.6640625" style="1"/>
     <col min="3" max="3" width="28.83203125" style="2" customWidth="1"/>
@@ -1683,7 +1591,7 @@
     <col min="5" max="5" width="13.08203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1700,7 +1608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1711,14 +1619,14 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
+      <c r="D2" s="1">
+        <v>-1</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="66" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A5" si="0">A2</f>
         <v>1</v>
@@ -1728,16 +1636,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1747,16 +1655,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="66" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1768,32 +1676,32 @@
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
+      <c r="D5" s="1">
+        <v>-1</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" ref="B3:B60" si="2">IF(ISBLANK(A6), "", 1)</f>
+        <f t="shared" ref="B6:B57" si="2">IF(ISBLANK(A6), "", 1)</f>
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="82.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <f t="shared" ref="A7:A9" si="3">A6</f>
         <v>2</v>
@@ -1803,16 +1711,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="82.5" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -1822,16 +1730,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="82.5" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -1841,16 +1749,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="D9" s="1">
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -1861,14 +1769,14 @@
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>23</v>
+      <c r="D10" s="1">
+        <v>-1</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="98" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="115.5" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <f t="shared" ref="A11:A13" si="5">A10</f>
         <v>3</v>
@@ -1878,16 +1786,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="66" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -1899,14 +1807,14 @@
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>23</v>
+      <c r="D12" s="1">
+        <v>-1</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -1916,16 +1824,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-1</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -1934,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="84" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="99" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <f t="shared" ref="A15:A17" si="7">A14</f>
         <v>4</v>
@@ -1953,16 +1861,16 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="82.5" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <f t="shared" si="7"/>
         <v>4</v>
@@ -1974,14 +1882,14 @@
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>23</v>
+      <c r="D16" s="1">
+        <v>-1</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="84" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="99" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <f t="shared" si="7"/>
         <v>4</v>
@@ -1993,14 +1901,14 @@
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>23</v>
+      <c r="D17" s="1">
+        <v>-1</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -2009,16 +1917,16 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="84" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="99" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <f t="shared" ref="A19:A20" si="9">A18</f>
         <v>5</v>
@@ -2028,16 +1936,16 @@
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="82.5" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <f t="shared" si="9"/>
         <v>5</v>
@@ -2049,14 +1957,14 @@
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>23</v>
+      <c r="D20" s="1">
+        <v>-1</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>6</v>
       </c>
@@ -2065,16 +1973,16 @@
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <f t="shared" ref="A22:A24" si="11">A21</f>
         <v>6</v>
@@ -2084,16 +1992,16 @@
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -2103,16 +2011,16 @@
         <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
+      </c>
+      <c r="D23" s="1">
+        <v>12</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -2124,14 +2032,14 @@
       <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>23</v>
+      <c r="D24" s="1">
+        <v>-1</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>7</v>
       </c>
@@ -2140,16 +2048,16 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
+      </c>
+      <c r="D25" s="1">
+        <v>6</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <f t="shared" ref="A26:A28" si="13">A25</f>
         <v>7</v>
@@ -2159,16 +2067,16 @@
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <f t="shared" si="13"/>
         <v>7</v>
@@ -2178,16 +2086,16 @@
         <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <f t="shared" si="13"/>
         <v>7</v>
@@ -2197,16 +2105,16 @@
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>8</v>
       </c>
@@ -2215,16 +2123,16 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>28</v>
+        <v>57</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <f t="shared" ref="A30:A32" si="15">A29</f>
         <v>8</v>
@@ -2236,14 +2144,14 @@
       <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>23</v>
+      <c r="D30" s="1">
+        <v>-1</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <f t="shared" si="15"/>
         <v>8</v>
@@ -2253,16 +2161,16 @@
         <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="D31" s="1">
+        <v>15</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="66" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <f t="shared" si="15"/>
         <v>8</v>
@@ -2274,14 +2182,14 @@
       <c r="C32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>23</v>
+      <c r="D32" s="1">
+        <v>-1</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>9</v>
       </c>
@@ -2290,16 +2198,16 @@
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
+      </c>
+      <c r="D33" s="1">
+        <v>6</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="66" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <f t="shared" ref="A34:A36" si="17">A33</f>
         <v>9</v>
@@ -2309,16 +2217,16 @@
         <v>2</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <f t="shared" si="17"/>
         <v>9</v>
@@ -2328,16 +2236,16 @@
         <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
+      </c>
+      <c r="D35" s="1">
+        <v>14</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="66" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <f t="shared" si="17"/>
         <v>9</v>
@@ -2349,14 +2257,14 @@
       <c r="C36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>23</v>
+      <c r="D36" s="1">
+        <v>-1</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -2365,16 +2273,16 @@
         <v>1</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <f t="shared" ref="A38:A40" si="19">A37</f>
         <v>10</v>
@@ -2384,16 +2292,16 @@
         <v>2</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <f t="shared" si="19"/>
         <v>10</v>
@@ -2403,16 +2311,16 @@
         <v>3</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>31</v>
+        <v>67</v>
+      </c>
+      <c r="D39" s="1">
+        <v>4</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <f t="shared" si="19"/>
         <v>10</v>
@@ -2422,16 +2330,16 @@
         <v>4</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
+      </c>
+      <c r="D40" s="1">
+        <v>14</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>11</v>
       </c>
@@ -2440,16 +2348,16 @@
         <v>1</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <f t="shared" ref="A42:A44" si="21">A41</f>
         <v>11</v>
@@ -2459,16 +2367,16 @@
         <v>2</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>94</v>
+        <v>72</v>
+      </c>
+      <c r="D42" s="1">
+        <v>4</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <f t="shared" si="21"/>
         <v>11</v>
@@ -2480,14 +2388,14 @@
       <c r="C43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>23</v>
+      <c r="D43" s="1">
+        <v>-1</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <f t="shared" si="21"/>
         <v>11</v>
@@ -2499,14 +2407,14 @@
       <c r="C44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>23</v>
+      <c r="D44" s="1">
+        <v>-1</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>12</v>
       </c>
@@ -2515,16 +2423,16 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>96</v>
+        <v>73</v>
+      </c>
+      <c r="D45" s="1">
+        <v>7</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <f t="shared" ref="A46:A48" si="23">A45</f>
         <v>12</v>
@@ -2534,16 +2442,16 @@
         <v>2</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>98</v>
+        <v>74</v>
+      </c>
+      <c r="D46" s="1">
+        <v>4</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <f t="shared" si="23"/>
         <v>12</v>
@@ -2553,16 +2461,16 @@
         <v>3</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>100</v>
+        <v>75</v>
+      </c>
+      <c r="D47" s="1">
+        <v>7</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <f t="shared" si="23"/>
         <v>12</v>
@@ -2574,14 +2482,14 @@
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>23</v>
+      <c r="D48" s="1">
+        <v>-1</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>13</v>
       </c>
@@ -2592,14 +2500,14 @@
       <c r="C49" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>23</v>
+      <c r="D49" s="1">
+        <v>-1</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <f t="shared" ref="A50:A52" si="25">A49</f>
         <v>13</v>
@@ -2609,16 +2517,16 @@
         <v>2</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
+      </c>
+      <c r="D50" s="1">
+        <v>4</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <f t="shared" si="25"/>
         <v>13</v>
@@ -2628,16 +2536,16 @@
         <v>3</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>106</v>
+        <v>79</v>
+      </c>
+      <c r="D51" s="1">
+        <v>4</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <f t="shared" si="25"/>
         <v>13</v>
@@ -2649,14 +2557,14 @@
       <c r="C52" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>23</v>
+      <c r="D52" s="1">
+        <v>-1</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>14</v>
       </c>
@@ -2667,14 +2575,14 @@
       <c r="C53" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>23</v>
+      <c r="D53" s="1">
+        <v>-1</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <f t="shared" ref="A54:A56" si="27">A53</f>
         <v>14</v>
@@ -2684,16 +2592,16 @@
         <v>2</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>108</v>
+        <v>81</v>
+      </c>
+      <c r="D54" s="1">
+        <v>4</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <f t="shared" si="27"/>
         <v>14</v>
@@ -2703,16 +2611,16 @@
         <v>3</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>34</v>
+        <v>82</v>
+      </c>
+      <c r="D55" s="1">
+        <v>9</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <f t="shared" si="27"/>
         <v>14</v>
@@ -2724,14 +2632,14 @@
       <c r="C56" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>23</v>
+      <c r="D56" s="1">
+        <v>-1</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>15</v>
       </c>
@@ -2740,18 +2648,18 @@
         <v>1</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>55</v>
+        <v>83</v>
+      </c>
+      <c r="D57" s="1">
+        <v>9</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
-        <f t="shared" ref="A58:A89" si="29">A57</f>
+        <f t="shared" ref="A58:A60" si="29">A57</f>
         <v>15</v>
       </c>
       <c r="B58" s="1">
@@ -2759,16 +2667,16 @@
         <v>2</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <f t="shared" si="29"/>
         <v>15</v>
@@ -2778,16 +2686,16 @@
         <v>3</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>114</v>
+        <v>86</v>
+      </c>
+      <c r="D59" s="1">
+        <v>10</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <f t="shared" si="29"/>
         <v>15</v>
@@ -2799,8 +2707,8 @@
       <c r="C60" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>23</v>
+      <c r="D60" s="1">
+        <v>-1</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>23</v>
